--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2702,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2474.375208425427</v>
+        <v>2578.520050471236</v>
       </c>
       <c r="AB2" t="n">
-        <v>3385.54932189781</v>
+        <v>3528.044889331059</v>
       </c>
       <c r="AC2" t="n">
-        <v>3062.437246264072</v>
+        <v>3191.33323673527</v>
       </c>
       <c r="AD2" t="n">
-        <v>2474375.208425427</v>
+        <v>2578520.050471236</v>
       </c>
       <c r="AE2" t="n">
-        <v>3385549.32189781</v>
+        <v>3528044.889331059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.036654741853328e-06</v>
+        <v>1.752516275973176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.54444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3062437.246264072</v>
+        <v>3191333.23673527</v>
       </c>
     </row>
     <row r="3">
@@ -2808,28 +2808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.3361476218337</v>
+        <v>864.3233172987174</v>
       </c>
       <c r="AB3" t="n">
-        <v>1111.474154917726</v>
+        <v>1182.605293981696</v>
       </c>
       <c r="AC3" t="n">
-        <v>1005.396621536151</v>
+        <v>1069.739104521037</v>
       </c>
       <c r="AD3" t="n">
-        <v>812336.1476218337</v>
+        <v>864323.3172987173</v>
       </c>
       <c r="AE3" t="n">
-        <v>1111474.154917726</v>
+        <v>1182605.293981696</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.960540821244987e-06</v>
+        <v>3.314391532902268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1005396.621536151</v>
+        <v>1069739.104521037</v>
       </c>
     </row>
     <row r="4">
@@ -2914,28 +2914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.9252998634432</v>
+        <v>645.9123800317757</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.6347974081398</v>
+        <v>883.7658140025617</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.0780728836077</v>
+        <v>799.4204450872669</v>
       </c>
       <c r="AD4" t="n">
-        <v>593925.2998634432</v>
+        <v>645912.3800317757</v>
       </c>
       <c r="AE4" t="n">
-        <v>812634.7974081398</v>
+        <v>883765.8140025617</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.303952763592683e-06</v>
+        <v>3.894946460237035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.794444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>735078.0728836077</v>
+        <v>799420.4450872669</v>
       </c>
     </row>
     <row r="5">
@@ -3020,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.2734699633758</v>
+        <v>553.8461554356784</v>
       </c>
       <c r="AB5" t="n">
-        <v>700.9151615143647</v>
+        <v>757.7967438350111</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.0208022400408</v>
+        <v>685.4736861778067</v>
       </c>
       <c r="AD5" t="n">
-        <v>512273.4699633758</v>
+        <v>553846.1554356784</v>
       </c>
       <c r="AE5" t="n">
-        <v>700915.1615143648</v>
+        <v>757796.743835011</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.463258558428573e-06</v>
+        <v>4.164260810555457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.226388888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>634020.8022400407</v>
+        <v>685473.6861778067</v>
       </c>
     </row>
     <row r="6">
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>512.2891821181346</v>
+        <v>553.8618675904374</v>
       </c>
       <c r="AB6" t="n">
-        <v>700.9366595776771</v>
+        <v>757.8182418983235</v>
       </c>
       <c r="AC6" t="n">
-        <v>634.0402485583633</v>
+        <v>685.4931324961293</v>
       </c>
       <c r="AD6" t="n">
-        <v>512289.1821181346</v>
+        <v>553861.8675904374</v>
       </c>
       <c r="AE6" t="n">
-        <v>700936.6595776771</v>
+        <v>757818.2418983235</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.466613900261198e-06</v>
+        <v>4.169933182402823e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.213888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>634040.2485583633</v>
+        <v>685493.1324961293</v>
       </c>
     </row>
     <row r="7">
@@ -3232,28 +3232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>513.1382511850984</v>
+        <v>554.7109366574011</v>
       </c>
       <c r="AB7" t="n">
-        <v>702.0983933333806</v>
+        <v>758.9799756540268</v>
       </c>
       <c r="AC7" t="n">
-        <v>635.091108074926</v>
+        <v>686.5439920126921</v>
       </c>
       <c r="AD7" t="n">
-        <v>513138.2511850984</v>
+        <v>554710.9366574012</v>
       </c>
       <c r="AE7" t="n">
-        <v>702098.3933333806</v>
+        <v>758979.9756540268</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.470698664231349e-06</v>
+        <v>4.176838678564834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.201388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>635091.108074926</v>
+        <v>686543.9920126921</v>
       </c>
     </row>
   </sheetData>
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1467.623022550802</v>
+        <v>1548.17697310109</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.066566412151</v>
+        <v>2118.28403534454</v>
       </c>
       <c r="AC2" t="n">
-        <v>1816.419511652901</v>
+        <v>1916.117980041573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1467623.022550802</v>
+        <v>1548176.97310109</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008066.566412151</v>
+        <v>2118284.03534454</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377253933197642e-06</v>
+        <v>2.3851159765324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.21944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1816419.511652901</v>
+        <v>1916117.980041573</v>
       </c>
     </row>
     <row r="3">
@@ -3635,28 +3635,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>614.1590753307216</v>
+        <v>664.4413223494302</v>
       </c>
       <c r="AB3" t="n">
-        <v>840.3195416536438</v>
+        <v>909.1179303208196</v>
       </c>
       <c r="AC3" t="n">
-        <v>760.1206239941033</v>
+        <v>822.3529910060288</v>
       </c>
       <c r="AD3" t="n">
-        <v>614159.0753307217</v>
+        <v>664441.3223494302</v>
       </c>
       <c r="AE3" t="n">
-        <v>840319.5416536438</v>
+        <v>909117.9303208196</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235207977710967e-06</v>
+        <v>3.870913075654326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.377777777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>760120.6239941033</v>
+        <v>822352.9910060288</v>
       </c>
     </row>
     <row r="4">
@@ -3741,28 +3741,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.0451961748593</v>
+        <v>520.3222162042792</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.8190155058234</v>
+        <v>711.9278112067924</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.1331305172248</v>
+        <v>643.9824201021739</v>
       </c>
       <c r="AD4" t="n">
-        <v>480045.1961748593</v>
+        <v>520322.2162042792</v>
       </c>
       <c r="AE4" t="n">
-        <v>656819.0155058233</v>
+        <v>711927.8112067924</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501724572717217e-06</v>
+        <v>4.332464118231162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.377777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>594133.1305172248</v>
+        <v>643982.4201021739</v>
       </c>
     </row>
     <row r="5">
@@ -3847,28 +3847,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.0590727864496</v>
+        <v>521.3360928158695</v>
       </c>
       <c r="AB5" t="n">
-        <v>658.2062462148805</v>
+        <v>713.3150419158495</v>
       </c>
       <c r="AC5" t="n">
-        <v>595.3879658744002</v>
+        <v>645.2372554593492</v>
       </c>
       <c r="AD5" t="n">
-        <v>481059.0727864496</v>
+        <v>521336.0928158695</v>
       </c>
       <c r="AE5" t="n">
-        <v>658206.2462148805</v>
+        <v>713315.0419158495</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.503988303705379e-06</v>
+        <v>4.336384427199822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.370833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>595387.9658744001</v>
+        <v>645237.2554593491</v>
       </c>
     </row>
     <row r="6">
@@ -3953,28 +3953,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.0847077888965</v>
+        <v>522.3617278183165</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.6095652730512</v>
+        <v>714.7183609740202</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.6573541312297</v>
+        <v>646.5066437161787</v>
       </c>
       <c r="AD6" t="n">
-        <v>482084.7077888965</v>
+        <v>522361.7278183164</v>
       </c>
       <c r="AE6" t="n">
-        <v>659609.5652730512</v>
+        <v>714718.3609740202</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.507912104084859e-06</v>
+        <v>4.343179629412165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>596657.3541312297</v>
+        <v>646506.6437161787</v>
       </c>
     </row>
   </sheetData>
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.6969186496636</v>
+        <v>490.2737467132404</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.4539427399071</v>
+        <v>670.8141696042384</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.3839524152817</v>
+        <v>606.7926067508093</v>
       </c>
       <c r="AD2" t="n">
-        <v>444696.9186496636</v>
+        <v>490273.7467132404</v>
       </c>
       <c r="AE2" t="n">
-        <v>608453.9427399071</v>
+        <v>670814.1696042384</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.439605012702978e-06</v>
+        <v>4.616257661952521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.587499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>550383.9524152817</v>
+        <v>606792.6067508094</v>
       </c>
     </row>
     <row r="3">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.7965451070733</v>
+        <v>482.2027809700579</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.6443031190531</v>
+        <v>659.7711182085374</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.6059696284175</v>
+        <v>596.803488681294</v>
       </c>
       <c r="AD3" t="n">
-        <v>436796.5451070733</v>
+        <v>482202.7809700579</v>
       </c>
       <c r="AE3" t="n">
-        <v>597644.3031190531</v>
+        <v>659771.1182085373</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>4.679350021796974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>540605.9696284175</v>
+        <v>596803.488681294</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.8323315953623</v>
+        <v>485.2385674583469</v>
       </c>
       <c r="AB4" t="n">
-        <v>601.7980001217777</v>
+        <v>663.9248152112621</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.3632436189524</v>
+        <v>600.5607626718291</v>
       </c>
       <c r="AD4" t="n">
-        <v>439832.3315953623</v>
+        <v>485238.567458347</v>
       </c>
       <c r="AE4" t="n">
-        <v>601798.0001217778</v>
+        <v>663924.8152112621</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>4.679350021796974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>544363.2436189525</v>
+        <v>600560.7626718291</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.4917802261089</v>
+        <v>730.3862240453718</v>
       </c>
       <c r="AB2" t="n">
-        <v>921.5011660657133</v>
+        <v>999.346654104943</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.5543881114104</v>
+        <v>903.9704120290048</v>
       </c>
       <c r="AD2" t="n">
-        <v>673491.7802261089</v>
+        <v>730386.2240453719</v>
       </c>
       <c r="AE2" t="n">
-        <v>921501.1660657133</v>
+        <v>999346.654104943</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.036980693981612e-06</v>
+        <v>3.710936443600266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>833554.3881114104</v>
+        <v>903970.4120290048</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.671573729892</v>
+        <v>486.0693867701827</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.2098000012185</v>
+        <v>665.061578846877</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.9266190888463</v>
+        <v>601.5890351815187</v>
       </c>
       <c r="AD3" t="n">
-        <v>438671.573729892</v>
+        <v>486069.3867701827</v>
       </c>
       <c r="AE3" t="n">
-        <v>600209.8000012184</v>
+        <v>665061.578846877</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524154817565952e-06</v>
+        <v>4.598461894837788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.863888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>542926.6190888464</v>
+        <v>601589.0351815188</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.1307158874892</v>
+        <v>487.5285289277799</v>
       </c>
       <c r="AB4" t="n">
-        <v>602.2062626740517</v>
+        <v>667.0580415197102</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.7325421662375</v>
+        <v>603.3949582589096</v>
       </c>
       <c r="AD4" t="n">
-        <v>440130.7158874892</v>
+        <v>487528.5289277799</v>
       </c>
       <c r="AE4" t="n">
-        <v>602206.2626740517</v>
+        <v>667058.0415197102</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527537971201954e-06</v>
+        <v>4.604625266026936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.852777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>544732.5421662375</v>
+        <v>603394.9582589096</v>
       </c>
     </row>
   </sheetData>
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.320348727067</v>
+        <v>490.248347216383</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.6751913924908</v>
+        <v>670.7794168920914</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.3932082140049</v>
+        <v>606.761170788734</v>
       </c>
       <c r="AD2" t="n">
-        <v>446320.348727067</v>
+        <v>490248.347216383</v>
       </c>
       <c r="AE2" t="n">
-        <v>610675.1913924908</v>
+        <v>670779.4168920914</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35971241117512e-06</v>
+        <v>4.624276025460788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>552393.2082140049</v>
+        <v>606761.170788734</v>
       </c>
     </row>
     <row r="3">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.3635254579331</v>
+        <v>492.2915239472491</v>
       </c>
       <c r="AB3" t="n">
-        <v>613.4707559342575</v>
+        <v>673.5749814338581</v>
       </c>
       <c r="AC3" t="n">
-        <v>554.9219679995048</v>
+        <v>609.2899305742337</v>
       </c>
       <c r="AD3" t="n">
-        <v>448363.5254579331</v>
+        <v>492291.5239472491</v>
       </c>
       <c r="AE3" t="n">
-        <v>613470.7559342574</v>
+        <v>673574.981433858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36478442866134e-06</v>
+        <v>4.634215545527373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>554921.9679995048</v>
+        <v>609289.9305742338</v>
       </c>
     </row>
   </sheetData>
@@ -5671,28 +5671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1665.892079963373</v>
+        <v>1747.212480537481</v>
       </c>
       <c r="AB2" t="n">
-        <v>2279.347037777511</v>
+        <v>2390.613197445878</v>
       </c>
       <c r="AC2" t="n">
-        <v>2061.809355575684</v>
+        <v>2162.456429128339</v>
       </c>
       <c r="AD2" t="n">
-        <v>1665892.079963373</v>
+        <v>1747212.480537481</v>
       </c>
       <c r="AE2" t="n">
-        <v>2279347.037777511</v>
+        <v>2390613.197445878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286811977215051e-06</v>
+        <v>2.213935824113296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.14305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2061809.355575684</v>
+        <v>2162456.429128339</v>
       </c>
     </row>
     <row r="3">
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.5548604767123</v>
+        <v>709.4333929267929</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.0638134941973</v>
+        <v>970.678066194833</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.0675477853156</v>
+        <v>878.03791391242</v>
       </c>
       <c r="AD3" t="n">
-        <v>658554.8604767123</v>
+        <v>709433.3929267928</v>
       </c>
       <c r="AE3" t="n">
-        <v>901063.8134941973</v>
+        <v>970678.066194833</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162783356869695e-06</v>
+        <v>3.721028120932401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>815067.5477853155</v>
+        <v>878037.9139124199</v>
       </c>
     </row>
     <row r="4">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.8845119550998</v>
+        <v>536.5020865691436</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.4910661376431</v>
+        <v>734.0658236455023</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.7368310536579</v>
+        <v>664.0076117046291</v>
       </c>
       <c r="AD4" t="n">
-        <v>495884.5119550998</v>
+        <v>536502.0865691436</v>
       </c>
       <c r="AE4" t="n">
-        <v>678491.0661376431</v>
+        <v>734065.8236455023</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47416672931992e-06</v>
+        <v>4.256757361495381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.395833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>613736.8310536578</v>
+        <v>664007.611704629</v>
       </c>
     </row>
     <row r="5">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.3061703113851</v>
+        <v>527.9237449254289</v>
       </c>
       <c r="AB5" t="n">
-        <v>666.753800650989</v>
+        <v>722.3285581588482</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.1197537116946</v>
+        <v>653.3905343626656</v>
       </c>
       <c r="AD5" t="n">
-        <v>487306.1703113851</v>
+        <v>527923.7449254289</v>
       </c>
       <c r="AE5" t="n">
-        <v>666753.8006509889</v>
+        <v>722328.5581588482</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.499442324874237e-06</v>
+        <v>4.300243548649628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.311111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>603119.7537116945</v>
+        <v>653390.5343626656</v>
       </c>
     </row>
     <row r="6">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.8785024116221</v>
+        <v>529.496077025666</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.9051347969299</v>
+        <v>724.479892304789</v>
       </c>
       <c r="AC6" t="n">
-        <v>605.0657675461632</v>
+        <v>655.3365481971344</v>
       </c>
       <c r="AD6" t="n">
-        <v>488878.5024116221</v>
+        <v>529496.0770256659</v>
       </c>
       <c r="AE6" t="n">
-        <v>668905.1347969299</v>
+        <v>724479.892304789</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.499591884611244e-06</v>
+        <v>4.300500863366517e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.309722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>605065.7675461632</v>
+        <v>655336.5481971344</v>
       </c>
     </row>
     <row r="7">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>489.6037126439925</v>
+        <v>530.2212872580362</v>
       </c>
       <c r="AB7" t="n">
-        <v>669.8973994308766</v>
+        <v>725.4721569387359</v>
       </c>
       <c r="AC7" t="n">
-        <v>605.9633318360981</v>
+        <v>656.2341124870693</v>
       </c>
       <c r="AD7" t="n">
-        <v>489603.7126439926</v>
+        <v>530221.2872580362</v>
       </c>
       <c r="AE7" t="n">
-        <v>669897.3994308766</v>
+        <v>725472.1569387359</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.503629997510455e-06</v>
+        <v>4.307448360722521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.297222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>605963.3318360981</v>
+        <v>656234.1124870693</v>
       </c>
     </row>
   </sheetData>
@@ -6498,28 +6498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.383738163973</v>
+        <v>505.4712050871304</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.6538294867922</v>
+        <v>691.6080026159392</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.2742359357985</v>
+        <v>625.6019055242014</v>
       </c>
       <c r="AD2" t="n">
-        <v>462383.738163973</v>
+        <v>505471.2050871304</v>
       </c>
       <c r="AE2" t="n">
-        <v>632653.8294867922</v>
+        <v>691608.0026159392</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259526412674825e-06</v>
+        <v>4.529583069384213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>572274.2359357985</v>
+        <v>625601.9055242013</v>
       </c>
     </row>
     <row r="3">
@@ -6604,28 +6604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.4475921989697</v>
+        <v>509.0671042419257</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.8999768100842</v>
+        <v>696.5280704794046</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.1649614794636</v>
+        <v>630.0524090161363</v>
       </c>
       <c r="AD3" t="n">
-        <v>457447.5921989697</v>
+        <v>509067.1042419258</v>
       </c>
       <c r="AE3" t="n">
-        <v>625899.9768100842</v>
+        <v>696528.0704794046</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261674251470143e-06</v>
+        <v>4.533888756712525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>566164.9614794636</v>
+        <v>630052.4090161363</v>
       </c>
     </row>
   </sheetData>
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.671321592194</v>
+        <v>1073.285742947827</v>
       </c>
       <c r="AB2" t="n">
-        <v>1374.63562517299</v>
+        <v>1468.516903526399</v>
       </c>
       <c r="AC2" t="n">
-        <v>1243.442330419696</v>
+        <v>1328.363711330257</v>
       </c>
       <c r="AD2" t="n">
-        <v>1004671.321592194</v>
+        <v>1073285.742947827</v>
       </c>
       <c r="AE2" t="n">
-        <v>1374635.62517299</v>
+        <v>1468516.903526399</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674934247851368e-06</v>
+        <v>2.96643301211622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.89444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1243442.330419696</v>
+        <v>1328363.711330257</v>
       </c>
     </row>
     <row r="3">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.9162581825684</v>
+        <v>523.9021760495716</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.8013762719963</v>
+        <v>716.8260702038031</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.7852449225558</v>
+        <v>648.4131961352596</v>
       </c>
       <c r="AD3" t="n">
-        <v>474916.2581825684</v>
+        <v>523902.1760495716</v>
       </c>
       <c r="AE3" t="n">
-        <v>649801.3762719963</v>
+        <v>716826.070203803</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477727185249865e-06</v>
+        <v>4.388238957303375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587785.2449225558</v>
+        <v>648413.1961352596</v>
       </c>
     </row>
     <row r="4">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.3120029115298</v>
+        <v>496.6543507433611</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.7144575652314</v>
+        <v>679.5443935306326</v>
       </c>
       <c r="AC4" t="n">
-        <v>565.9971479309619</v>
+        <v>614.6896303586149</v>
       </c>
       <c r="AD4" t="n">
-        <v>457312.0029115297</v>
+        <v>496654.3507433611</v>
       </c>
       <c r="AE4" t="n">
-        <v>625714.4575652315</v>
+        <v>679544.3935306326</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.52810582397098e-06</v>
+        <v>4.477463269958932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>565997.1479309619</v>
+        <v>614689.6303586148</v>
       </c>
     </row>
     <row r="5">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.511747673079</v>
+        <v>498.8540955049104</v>
       </c>
       <c r="AB5" t="n">
-        <v>628.7242453938729</v>
+        <v>682.554181359274</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.7196858335016</v>
+        <v>617.4121682611544</v>
       </c>
       <c r="AD5" t="n">
-        <v>459511.747673079</v>
+        <v>498854.0955049105</v>
       </c>
       <c r="AE5" t="n">
-        <v>628724.245393873</v>
+        <v>682554.1813592741</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.528261313596662e-06</v>
+        <v>4.477738653639968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>568719.6858335015</v>
+        <v>617412.1682611544</v>
       </c>
     </row>
   </sheetData>
@@ -7516,28 +7516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.545226087241</v>
+        <v>1366.475316598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1773.990377870998</v>
+        <v>1869.671812805677</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.683226018122</v>
+        <v>1691.232959092372</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296545.226087241</v>
+        <v>1366475.316598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1773990.377870998</v>
+        <v>1869671.812805677</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470166451552149e-06</v>
+        <v>2.563841917742124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.39305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604683.226018122</v>
+        <v>1691232.959092372</v>
       </c>
     </row>
     <row r="3">
@@ -7622,28 +7622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.1212157956292</v>
+        <v>609.1300720794827</v>
       </c>
       <c r="AB3" t="n">
-        <v>778.6967553075979</v>
+        <v>833.4386375413337</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.3790298888003</v>
+        <v>753.8964237128624</v>
       </c>
       <c r="AD3" t="n">
-        <v>569121.2157956292</v>
+        <v>609130.0720794827</v>
       </c>
       <c r="AE3" t="n">
-        <v>778696.7553075979</v>
+        <v>833438.6375413337</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314179108712656e-06</v>
+        <v>4.035726293316358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.143055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>704379.0298888003</v>
+        <v>753896.4237128624</v>
       </c>
     </row>
     <row r="4">
@@ -7728,28 +7728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.714932596468</v>
+        <v>512.6384480257499</v>
       </c>
       <c r="AB4" t="n">
-        <v>646.7894254894628</v>
+        <v>701.4145406010009</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.0607504954079</v>
+        <v>634.4725212875311</v>
       </c>
       <c r="AD4" t="n">
-        <v>472714.932596468</v>
+        <v>512638.4480257499</v>
       </c>
       <c r="AE4" t="n">
-        <v>646789.4254894628</v>
+        <v>701414.5406010009</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.510252085204638e-06</v>
+        <v>4.37766044338207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.429166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>585060.7504954078</v>
+        <v>634472.5212875311</v>
       </c>
     </row>
     <row r="5">
@@ -7834,28 +7834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.5637429376787</v>
+        <v>513.4872583669606</v>
       </c>
       <c r="AB5" t="n">
-        <v>647.9508052451769</v>
+        <v>702.5759203567147</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.1112897972431</v>
+        <v>635.5230605893664</v>
       </c>
       <c r="AD5" t="n">
-        <v>473563.7429376787</v>
+        <v>513487.2583669607</v>
       </c>
       <c r="AE5" t="n">
-        <v>647950.8052451769</v>
+        <v>702575.9203567147</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514365504291882e-06</v>
+        <v>4.384833887089742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.41527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>586111.2897972431</v>
+        <v>635523.0605893665</v>
       </c>
     </row>
     <row r="6">
@@ -7940,28 +7940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.3582912011342</v>
+        <v>514.2818066304162</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.037941232232</v>
+        <v>703.66305634377</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.0946710514988</v>
+        <v>636.5064418436222</v>
       </c>
       <c r="AD6" t="n">
-        <v>474358.2912011342</v>
+        <v>514281.8066304162</v>
       </c>
       <c r="AE6" t="n">
-        <v>649037.941232232</v>
+        <v>703663.05634377</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.51817422566896e-06</v>
+        <v>4.391475964596846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.402777777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>587094.6710514989</v>
+        <v>636506.4418436221</v>
       </c>
     </row>
   </sheetData>
@@ -8237,28 +8237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2158.012842489365</v>
+        <v>2250.964419057991</v>
       </c>
       <c r="AB2" t="n">
-        <v>2952.688375901341</v>
+        <v>3079.868823696855</v>
       </c>
       <c r="AC2" t="n">
-        <v>2670.88794142948</v>
+        <v>2785.930465786153</v>
       </c>
       <c r="AD2" t="n">
-        <v>2158012.842489365</v>
+        <v>2250964.419057991</v>
       </c>
       <c r="AE2" t="n">
-        <v>2952688.375901341</v>
+        <v>3079868.823696855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117731860307013e-06</v>
+        <v>1.900070083301791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.27222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2670887.94142948</v>
+        <v>2785930.465786153</v>
       </c>
     </row>
     <row r="3">
@@ -8343,28 +8343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.637328437164</v>
+        <v>814.2392037103903</v>
       </c>
       <c r="AB3" t="n">
-        <v>1043.474037952101</v>
+        <v>1114.078000214998</v>
       </c>
       <c r="AC3" t="n">
-        <v>943.8863402949623</v>
+        <v>1007.751959492771</v>
       </c>
       <c r="AD3" t="n">
-        <v>762637.328437164</v>
+        <v>814239.2037103903</v>
       </c>
       <c r="AE3" t="n">
-        <v>1043474.037952101</v>
+        <v>1114078.000214998</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025475416901565e-06</v>
+        <v>3.443173967556752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>943886.3402949623</v>
+        <v>1007751.959492771</v>
       </c>
     </row>
     <row r="4">
@@ -8449,28 +8449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.3870052846745</v>
+        <v>610.9887910493499</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.3779790434506</v>
+        <v>835.9818188367991</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.3313789382833</v>
+        <v>756.1968873548661</v>
       </c>
       <c r="AD4" t="n">
-        <v>559387.0052846745</v>
+        <v>610988.7910493498</v>
       </c>
       <c r="AE4" t="n">
-        <v>765377.9790434507</v>
+        <v>835981.8188367991</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.361927264866628e-06</v>
+        <v>4.015119810287247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.647222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>692331.3789382833</v>
+        <v>756196.8873548661</v>
       </c>
     </row>
     <row r="5">
@@ -8555,28 +8555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>502.3785184657604</v>
+        <v>543.6429684151373</v>
       </c>
       <c r="AB5" t="n">
-        <v>687.3764523408763</v>
+        <v>743.8362932206639</v>
       </c>
       <c r="AC5" t="n">
-        <v>621.7742084683723</v>
+        <v>672.8456013764774</v>
       </c>
       <c r="AD5" t="n">
-        <v>502378.5184657604</v>
+        <v>543642.9684151373</v>
       </c>
       <c r="AE5" t="n">
-        <v>687376.4523408763</v>
+        <v>743836.2932206639</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.4780972648196e-06</v>
+        <v>4.212601110880382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.241666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>621774.2084683724</v>
+        <v>672845.6013764774</v>
       </c>
     </row>
     <row r="6">
@@ -8661,28 +8661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.3176388046885</v>
+        <v>545.5820887540655</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.0296423365495</v>
+        <v>746.4894832163371</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.174181734634</v>
+        <v>675.245574642739</v>
       </c>
       <c r="AD6" t="n">
-        <v>504317.6388046885</v>
+        <v>545582.0887540655</v>
       </c>
       <c r="AE6" t="n">
-        <v>690029.6423365495</v>
+        <v>746489.4832163372</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.478244315452451e-06</v>
+        <v>4.212851087210247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.241666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>624174.181734634</v>
+        <v>675245.574642739</v>
       </c>
     </row>
     <row r="7">
@@ -8767,28 +8767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>504.9216559680811</v>
+        <v>546.186105917458</v>
       </c>
       <c r="AB7" t="n">
-        <v>690.8560852668597</v>
+        <v>747.3159261466473</v>
       </c>
       <c r="AC7" t="n">
-        <v>624.9217501115955</v>
+        <v>675.9931430197005</v>
       </c>
       <c r="AD7" t="n">
-        <v>504921.6559680811</v>
+        <v>546186.105917458</v>
       </c>
       <c r="AE7" t="n">
-        <v>690856.0852668597</v>
+        <v>747315.9261466473</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.482361733172304e-06</v>
+        <v>4.219850424446458e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.227777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>624921.7501115955</v>
+        <v>675993.1430197005</v>
       </c>
     </row>
   </sheetData>
@@ -9064,28 +9064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.6963533643676</v>
+        <v>834.3452315312917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.710216097907</v>
+        <v>1141.5879544949</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.2866445966777</v>
+        <v>1032.636402346664</v>
       </c>
       <c r="AD2" t="n">
-        <v>776696.3533643676</v>
+        <v>834345.2315312917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062710.216097907</v>
+        <v>1141587.9544949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907603713433511e-06</v>
+        <v>3.439860910553618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>961286.6445966776</v>
+        <v>1032636.402346664</v>
       </c>
     </row>
     <row r="3">
@@ -9170,28 +9170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.3213686088721</v>
+        <v>493.2767595600706</v>
       </c>
       <c r="AB3" t="n">
-        <v>609.3083427228843</v>
+        <v>674.923024264848</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.1568096630414</v>
+        <v>610.509318089424</v>
       </c>
       <c r="AD3" t="n">
-        <v>445321.3686088722</v>
+        <v>493276.7595600706</v>
       </c>
       <c r="AE3" t="n">
-        <v>609308.3427228843</v>
+        <v>674923.024264848</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523426745265811e-06</v>
+        <v>4.550335565274079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>551156.8096630414</v>
+        <v>610509.3180894241</v>
       </c>
     </row>
     <row r="4">
@@ -9276,28 +9276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>445.3962193502501</v>
+        <v>493.3516103014484</v>
       </c>
       <c r="AB4" t="n">
-        <v>609.4107568094191</v>
+        <v>675.0254383513828</v>
       </c>
       <c r="AC4" t="n">
-        <v>551.2494494928965</v>
+        <v>610.6019579192791</v>
       </c>
       <c r="AD4" t="n">
-        <v>445396.2193502501</v>
+        <v>493351.6103014484</v>
       </c>
       <c r="AE4" t="n">
-        <v>609410.7568094191</v>
+        <v>675025.4383513829</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530585628353503e-06</v>
+        <v>4.563244725558868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.731944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>551249.4494928964</v>
+        <v>610601.9579192791</v>
       </c>
     </row>
   </sheetData>
@@ -9573,28 +9573,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.7958228297339</v>
+        <v>541.0544253271153</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.0014736467432</v>
+        <v>740.2945343691709</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.3894031794332</v>
+        <v>669.6418630188811</v>
       </c>
       <c r="AD2" t="n">
-        <v>494795.8228297339</v>
+        <v>541054.4253271152</v>
       </c>
       <c r="AE2" t="n">
-        <v>677001.4736467432</v>
+        <v>740294.5343691709</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.338904050057657e-06</v>
+        <v>4.363647343713365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.840277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>612389.4031794332</v>
+        <v>669641.8630188811</v>
       </c>
     </row>
     <row r="3">
@@ -9679,28 +9679,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.40403694314</v>
+        <v>476.411008449596</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.2119884835806</v>
+        <v>651.8465595310712</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.8331601090324</v>
+        <v>589.6352387618174</v>
       </c>
       <c r="AD3" t="n">
-        <v>439404.03694314</v>
+        <v>476411.008449596</v>
       </c>
       <c r="AE3" t="n">
-        <v>601211.9884835806</v>
+        <v>651846.5595310712</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497990622826209e-06</v>
+        <v>4.660452037631803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.21388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>543833.1601090324</v>
+        <v>589635.2387618173</v>
       </c>
     </row>
     <row r="4">
@@ -9785,28 +9785,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.3371162932</v>
+        <v>478.3440877996561</v>
       </c>
       <c r="AB4" t="n">
-        <v>603.8569129317749</v>
+        <v>654.4914839792655</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.2256566800656</v>
+        <v>592.0277353328506</v>
       </c>
       <c r="AD4" t="n">
-        <v>441337.1162932001</v>
+        <v>478344.0877996561</v>
       </c>
       <c r="AE4" t="n">
-        <v>603856.9129317749</v>
+        <v>654491.4839792654</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500973496065619e-06</v>
+        <v>4.666017125642774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.202777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>546225.6566800657</v>
+        <v>592027.7353328506</v>
       </c>
     </row>
   </sheetData>
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.4053871864764</v>
+        <v>481.2395004189399</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.1091035954228</v>
+        <v>658.453115261559</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.1218487961652</v>
+        <v>595.6112740857466</v>
       </c>
       <c r="AD2" t="n">
-        <v>436405.3871864764</v>
+        <v>481239.5004189399</v>
       </c>
       <c r="AE2" t="n">
-        <v>597109.1035954228</v>
+        <v>658453.115261559</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42051710280114e-06</v>
+        <v>4.6547441501934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.83611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>540121.8487961652</v>
+        <v>595611.2740857466</v>
       </c>
     </row>
     <row r="3">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.1533074161911</v>
+        <v>481.9874206486547</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.1324410496304</v>
+        <v>659.4764527157666</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.0475203600064</v>
+        <v>596.5369456495877</v>
       </c>
       <c r="AD3" t="n">
-        <v>437153.3074161911</v>
+        <v>481987.4206486547</v>
       </c>
       <c r="AE3" t="n">
-        <v>598132.4410496304</v>
+        <v>659476.4527157666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>4.670897299156536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.802777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>541047.5203600064</v>
+        <v>596536.9456495877</v>
       </c>
     </row>
     <row r="4">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.3549565526274</v>
+        <v>485.1890697850909</v>
       </c>
       <c r="AB4" t="n">
-        <v>602.5130786448938</v>
+        <v>663.8570903110299</v>
       </c>
       <c r="AC4" t="n">
-        <v>545.0100760514413</v>
+        <v>600.4995013410226</v>
       </c>
       <c r="AD4" t="n">
-        <v>440354.9565526274</v>
+        <v>485189.0697850909</v>
       </c>
       <c r="AE4" t="n">
-        <v>602513.0786448937</v>
+        <v>663857.0903110299</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>4.670897299156536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.802777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>545010.0760514413</v>
+        <v>600499.5013410226</v>
       </c>
     </row>
   </sheetData>
@@ -17828,28 +17828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.6049539313838</v>
+        <v>540.9321030859788</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.2673419319334</v>
+        <v>740.1271676823718</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.2025289475804</v>
+        <v>669.4904695737695</v>
       </c>
       <c r="AD2" t="n">
-        <v>490604.9539313838</v>
+        <v>540932.1030859789</v>
       </c>
       <c r="AE2" t="n">
-        <v>671267.3419319334</v>
+        <v>740127.1676823718</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085906219247501e-06</v>
+        <v>4.302388752246218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>607202.5289475804</v>
+        <v>669490.4695737695</v>
       </c>
     </row>
   </sheetData>
@@ -18125,28 +18125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1142.799078191069</v>
+        <v>1212.170659982381</v>
       </c>
       <c r="AB2" t="n">
-        <v>1563.628115518116</v>
+        <v>1658.545374183181</v>
       </c>
       <c r="AC2" t="n">
-        <v>1414.39764273891</v>
+        <v>1500.256131454191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1142799.078191069</v>
+        <v>1212170.659982381</v>
       </c>
       <c r="AE2" t="n">
-        <v>1563628.115518116</v>
+        <v>1658545.374183181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569317426043699e-06</v>
+        <v>2.757228811476912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1414397.64273891</v>
+        <v>1500256.131454191</v>
       </c>
     </row>
     <row r="3">
@@ -18231,28 +18231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.3299843606868</v>
+        <v>565.7957733570521</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.4654634735505</v>
+        <v>774.1467382549706</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.0413911701395</v>
+        <v>700.2632600776866</v>
       </c>
       <c r="AD3" t="n">
-        <v>516329.9843606869</v>
+        <v>565795.7733570521</v>
       </c>
       <c r="AE3" t="n">
-        <v>706465.4634735505</v>
+        <v>774146.7382549706</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394674683941376e-06</v>
+        <v>4.207348955095125e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.923611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>639041.3911701395</v>
+        <v>700263.2600776866</v>
       </c>
     </row>
     <row r="4">
@@ -18337,28 +18337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.0886546743192</v>
+        <v>504.6443072090482</v>
       </c>
       <c r="AB4" t="n">
-        <v>636.3548155887422</v>
+        <v>690.4766044589873</v>
       </c>
       <c r="AC4" t="n">
-        <v>575.6220051185451</v>
+        <v>624.5784864194216</v>
       </c>
       <c r="AD4" t="n">
-        <v>465088.6546743192</v>
+        <v>504644.3072090482</v>
       </c>
       <c r="AE4" t="n">
-        <v>636354.8155887423</v>
+        <v>690476.6044589872</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.519616908664141e-06</v>
+        <v>4.426867515240164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.481944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>575622.005118545</v>
+        <v>624578.4864194215</v>
       </c>
     </row>
     <row r="5">
@@ -18443,28 +18443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.0271110395009</v>
+        <v>505.5827635742299</v>
       </c>
       <c r="AB5" t="n">
-        <v>637.6388529893567</v>
+        <v>691.7606418596017</v>
       </c>
       <c r="AC5" t="n">
-        <v>576.7834957918028</v>
+        <v>625.7399770926792</v>
       </c>
       <c r="AD5" t="n">
-        <v>466027.1110395009</v>
+        <v>505582.7635742299</v>
       </c>
       <c r="AE5" t="n">
-        <v>637638.8529893567</v>
+        <v>691760.6418596017</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.523463652036147e-06</v>
+        <v>4.43362609159931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.469444444444443</v>
       </c>
       <c r="AH5" t="n">
-        <v>576783.4957918028</v>
+        <v>625739.9770926791</v>
       </c>
     </row>
   </sheetData>
@@ -18740,28 +18740,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1892.565634569203</v>
+        <v>1974.628978257078</v>
       </c>
       <c r="AB2" t="n">
-        <v>2589.491795320662</v>
+        <v>2701.774482533623</v>
       </c>
       <c r="AC2" t="n">
-        <v>2342.354332749818</v>
+        <v>2443.920917884916</v>
       </c>
       <c r="AD2" t="n">
-        <v>1892565.634569203</v>
+        <v>1974628.978257078</v>
       </c>
       <c r="AE2" t="n">
-        <v>2589491.795320662</v>
+        <v>2701774.482533623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200869286912863e-06</v>
+        <v>2.053352652870953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2342354.332749818</v>
+        <v>2443920.917884916</v>
       </c>
     </row>
     <row r="3">
@@ -18846,28 +18846,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.1087106163833</v>
+        <v>757.3982444784612</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.1290891830988</v>
+        <v>1036.305692147732</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.9230848821563</v>
+        <v>937.4021313533257</v>
       </c>
       <c r="AD3" t="n">
-        <v>706108.7106163832</v>
+        <v>757398.2444784611</v>
       </c>
       <c r="AE3" t="n">
-        <v>966129.0891830989</v>
+        <v>1036305.692147732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.089770555593269e-06</v>
+        <v>3.573274761027684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.854166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>873923.0848821563</v>
+        <v>937402.1313533257</v>
       </c>
     </row>
     <row r="4">
@@ -18952,28 +18952,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.6097925207486</v>
+        <v>565.5561682643902</v>
       </c>
       <c r="AB4" t="n">
-        <v>717.7942622775028</v>
+        <v>773.8188999965599</v>
       </c>
       <c r="AC4" t="n">
-        <v>649.2889853163116</v>
+        <v>699.9667102425348</v>
       </c>
       <c r="AD4" t="n">
-        <v>524609.7925207486</v>
+        <v>565556.1682643902</v>
       </c>
       <c r="AE4" t="n">
-        <v>717794.2622775028</v>
+        <v>773818.89999656</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422645175808033e-06</v>
+        <v>4.142453265249846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>649288.9853163116</v>
+        <v>699966.7102425348</v>
       </c>
     </row>
     <row r="5">
@@ -19058,28 +19058,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.0857431724218</v>
+        <v>536.0321189160634</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.3981554499915</v>
+        <v>733.4227931690485</v>
       </c>
       <c r="AC5" t="n">
-        <v>612.7482262281259</v>
+        <v>663.425951154349</v>
       </c>
       <c r="AD5" t="n">
-        <v>495085.7431724218</v>
+        <v>536032.1189160633</v>
       </c>
       <c r="AE5" t="n">
-        <v>677398.1554499915</v>
+        <v>733422.7931690485</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.488182183440517e-06</v>
+        <v>4.254514244700267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.27638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>612748.2262281259</v>
+        <v>663425.951154349</v>
       </c>
     </row>
     <row r="6">
@@ -19164,28 +19164,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.0853430741617</v>
+        <v>538.0317188178033</v>
       </c>
       <c r="AB6" t="n">
-        <v>680.1340962516737</v>
+        <v>736.1587339707307</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.2230526796126</v>
+        <v>665.9007776058356</v>
       </c>
       <c r="AD6" t="n">
-        <v>497085.3430741617</v>
+        <v>538031.7188178033</v>
       </c>
       <c r="AE6" t="n">
-        <v>680134.0962516736</v>
+        <v>736158.7339707307</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.488330457213441e-06</v>
+        <v>4.254767776327982e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.27638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>615223.0526796125</v>
+        <v>665900.7776058356</v>
       </c>
     </row>
     <row r="7">
@@ -19270,28 +19270,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.8761756786926</v>
+        <v>538.8225514223343</v>
       </c>
       <c r="AB7" t="n">
-        <v>681.216148310265</v>
+        <v>737.2407860293222</v>
       </c>
       <c r="AC7" t="n">
-        <v>616.2018352084016</v>
+        <v>666.8795601346249</v>
       </c>
       <c r="AD7" t="n">
-        <v>497876.1756786926</v>
+        <v>538822.5514223343</v>
       </c>
       <c r="AE7" t="n">
-        <v>681216.148310265</v>
+        <v>737240.7860293222</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.492333849082394e-06</v>
+        <v>4.261613130276311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.262499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>616201.8352084015</v>
+        <v>666879.5601346248</v>
       </c>
     </row>
   </sheetData>
@@ -19567,28 +19567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.2576796548055</v>
+        <v>620.2757665342119</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.7280535436744</v>
+        <v>848.6886684076302</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.2206743984854</v>
+        <v>767.6910130368324</v>
       </c>
       <c r="AD2" t="n">
-        <v>555257.6796548056</v>
+        <v>620275.7665342119</v>
       </c>
       <c r="AE2" t="n">
-        <v>759728.0535436744</v>
+        <v>848688.6684076302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773770173430512e-06</v>
+        <v>3.802006463284219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.91944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>687220.6743984853</v>
+        <v>767691.0130368323</v>
       </c>
     </row>
   </sheetData>
@@ -19864,28 +19864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.5735496116383</v>
+        <v>631.3795181410146</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.8393201435171</v>
+        <v>863.8813112190056</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.5037780105553</v>
+        <v>781.4336913412983</v>
       </c>
       <c r="AD2" t="n">
-        <v>584573.5496116383</v>
+        <v>631379.5181410146</v>
       </c>
       <c r="AE2" t="n">
-        <v>799839.3201435171</v>
+        <v>863881.3112190056</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.182664387135632e-06</v>
+        <v>4.021411880071579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>723503.7780105553</v>
+        <v>781433.6913412983</v>
       </c>
     </row>
     <row r="3">
@@ -19970,28 +19970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.4876493750605</v>
+        <v>482.0007147839292</v>
       </c>
       <c r="AB3" t="n">
-        <v>608.1676112860864</v>
+        <v>659.494642338145</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.1249480335449</v>
+        <v>596.5533992799358</v>
       </c>
       <c r="AD3" t="n">
-        <v>444487.6493750605</v>
+        <v>482000.7147839292</v>
       </c>
       <c r="AE3" t="n">
-        <v>608167.6112860864</v>
+        <v>659494.6423381451</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.512039972116372e-06</v>
+        <v>4.628264174109016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.029166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>550124.9480335449</v>
+        <v>596553.3992799358</v>
       </c>
     </row>
     <row r="4">
@@ -20076,28 +20076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.1192984947077</v>
+        <v>483.6323639035765</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.4001055948665</v>
+        <v>661.7271366469254</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.1443762188205</v>
+        <v>598.5728274652113</v>
       </c>
       <c r="AD4" t="n">
-        <v>446119.2984947077</v>
+        <v>483632.3639035765</v>
       </c>
       <c r="AE4" t="n">
-        <v>610400.1055948666</v>
+        <v>661727.1366469254</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.515305967009587e-06</v>
+        <v>4.634281549359758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>552144.3762188206</v>
+        <v>598572.8274652113</v>
       </c>
     </row>
     <row r="5">
@@ -20182,28 +20182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.7560767689238</v>
+        <v>485.2691421777924</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.6396178392101</v>
+        <v>663.9666488912688</v>
       </c>
       <c r="AC5" t="n">
-        <v>554.1701525577391</v>
+        <v>600.5986038041299</v>
       </c>
       <c r="AD5" t="n">
-        <v>447756.0767689238</v>
+        <v>485269.1421777924</v>
       </c>
       <c r="AE5" t="n">
-        <v>612639.6178392101</v>
+        <v>663966.6488912689</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.518408662158141e-06</v>
+        <v>4.639998055847965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.005555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>554170.1525577392</v>
+        <v>600598.6038041299</v>
       </c>
     </row>
   </sheetData>
@@ -20479,28 +20479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>890.143977122859</v>
+        <v>948.3413112222527</v>
       </c>
       <c r="AB2" t="n">
-        <v>1217.934259880202</v>
+        <v>1297.562419880169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1101.696323498705</v>
+        <v>1173.724883667099</v>
       </c>
       <c r="AD2" t="n">
-        <v>890143.9771228591</v>
+        <v>948341.3112222527</v>
       </c>
       <c r="AE2" t="n">
-        <v>1217934.259880203</v>
+        <v>1297562.419880169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786992659527353e-06</v>
+        <v>3.192331974593926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1101696.323498705</v>
+        <v>1173724.8836671</v>
       </c>
     </row>
     <row r="3">
@@ -20585,28 +20585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.8803233290748</v>
+        <v>502.363803679015</v>
       </c>
       <c r="AB3" t="n">
-        <v>621.0190821654984</v>
+        <v>687.3563189204809</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.7498925693786</v>
+        <v>621.7559965533619</v>
       </c>
       <c r="AD3" t="n">
-        <v>453880.3233290748</v>
+        <v>502363.803679015</v>
       </c>
       <c r="AE3" t="n">
-        <v>621019.0821654984</v>
+        <v>687356.3189204809</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.517291876798562e-06</v>
+        <v>4.496958230267758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>561749.8925693786</v>
+        <v>621755.9965533619</v>
       </c>
     </row>
     <row r="4">
@@ -20691,28 +20691,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.4631916697876</v>
+        <v>499.9466720197278</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.7118559929387</v>
+        <v>684.0490927479212</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.7583034210069</v>
+        <v>618.7644074049904</v>
       </c>
       <c r="AD4" t="n">
-        <v>451463.1916697876</v>
+        <v>499946.6720197278</v>
       </c>
       <c r="AE4" t="n">
-        <v>617711.8559929387</v>
+        <v>684049.0927479212</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530498579543617e-06</v>
+        <v>4.520551040919341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>558758.3034210069</v>
+        <v>618764.4074049904</v>
       </c>
     </row>
     <row r="5">
@@ -20797,28 +20797,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.5287809759154</v>
+        <v>502.0122613258557</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.5380864089517</v>
+        <v>686.8753231639341</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.3148023727548</v>
+        <v>621.3209063567383</v>
       </c>
       <c r="AD5" t="n">
-        <v>453528.7809759154</v>
+        <v>502012.2613258557</v>
       </c>
       <c r="AE5" t="n">
-        <v>620538.0864089517</v>
+        <v>686875.3231639342</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530655802195344e-06</v>
+        <v>4.520831907712811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>561314.8023727548</v>
+        <v>621320.9063567383</v>
       </c>
     </row>
   </sheetData>
